--- a/proposal stage/ECE_411_Project_Matrix.xlsx
+++ b/proposal stage/ECE_411_Project_Matrix.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Desktop\ECE411\ece411-practicum-2014\proposal stage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Market Segment</t>
   </si>
@@ -310,13 +315,17 @@
   <si>
     <t>How many (estimate) GPIO pins does the project require?</t>
   </si>
+  <si>
+    <t>79$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -662,7 +671,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -842,6 +851,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1254,11 +1266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2959,14 +2971,30 @@
       <c r="B113" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="C113" s="36">
+        <v>4</v>
+      </c>
+      <c r="D113" s="36">
+        <v>5</v>
+      </c>
+      <c r="E113" s="36">
+        <v>2</v>
+      </c>
+      <c r="F113" s="36">
+        <v>3</v>
+      </c>
+      <c r="G113" s="36">
+        <v>5</v>
+      </c>
+      <c r="H113" s="36">
+        <v>4</v>
+      </c>
+      <c r="I113" s="36">
+        <v>5</v>
+      </c>
+      <c r="J113" s="37">
+        <v>4</v>
+      </c>
     </row>
     <row r="114" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="39" t="s">
@@ -3161,36 +3189,36 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C125">
-        <f>SUM(C15:C124)</f>
-        <v>65</v>
+        <f t="shared" ref="C125:J125" si="0">SUM(C15:C124)</f>
+        <v>69</v>
       </c>
       <c r="D125">
-        <f>SUM(D15:D124)</f>
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="E125">
-        <f>SUM(E15:E124)</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="F125">
-        <f>SUM(F15:F124)</f>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="G125">
-        <f>SUM(G15:G124)</f>
-        <v>77</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="H125">
-        <f>SUM(H15:H124)</f>
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="I125">
-        <f>SUM(I15:I124)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="J125">
-        <f>SUM(J15:J124)</f>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3215,8 +3243,12 @@
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="58"/>
+      <c r="G129" s="58">
+        <v>6</v>
+      </c>
+      <c r="H129" s="58">
+        <v>4</v>
+      </c>
       <c r="I129" s="58">
         <v>4</v>
       </c>
@@ -3232,8 +3264,12 @@
       <c r="D130" s="56"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
-      <c r="G130" s="59"/>
-      <c r="H130" s="59"/>
+      <c r="G130" s="70">
+        <v>34.74</v>
+      </c>
+      <c r="H130" s="59" t="s">
+        <v>90</v>
+      </c>
       <c r="I130" s="60">
         <v>45</v>
       </c>

--- a/proposal stage/ECE_411_Project_Matrix.xlsx
+++ b/proposal stage/ECE_411_Project_Matrix.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Desktop\ECE411\ece411-practicum-2014\proposal stage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Market Segment</t>
   </si>
@@ -317,6 +312,12 @@
   </si>
   <si>
     <t>79$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $30-$60</t>
+  </si>
+  <si>
+    <t>$40 -$70</t>
   </si>
 </sst>
 </file>
@@ -815,7 +816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,6 +853,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1266,66 +1269,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16" thickBot="1"/>
+    <row r="3" spans="1:10" ht="20">
       <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+    <row r="11" spans="1:10" ht="16" thickBot="1"/>
+    <row r="12" spans="1:10" ht="20">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
@@ -1351,61 +1354,61 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
+    <row r="13" spans="1:10" s="63" customFormat="1">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="64" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
+    <row r="14" spans="1:10" s="63" customFormat="1" ht="16" thickBot="1">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1421,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1434,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1483,20 +1486,36 @@
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="2:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" s="30" customFormat="1">
       <c r="B21" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="28">
+        <v>4</v>
+      </c>
+      <c r="D21" s="28">
+        <v>4</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="28">
+        <v>2</v>
+      </c>
+      <c r="G21" s="28">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28">
+        <v>4</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="34" customFormat="1">
       <c r="B22" s="31" t="s">
         <v>72</v>
       </c>
@@ -1509,7 +1528,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" s="38" customFormat="1">
       <c r="B23" s="35" t="s">
         <v>73</v>
       </c>
@@ -1538,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B24" s="39" t="s">
         <v>74</v>
       </c>
@@ -1567,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" ht="20">
       <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1580,7 +1599,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1593,7 +1612,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1625,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1638,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1651,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1645,20 +1664,36 @@
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" s="50" customFormat="1">
       <c r="B31" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="48">
+        <v>4</v>
+      </c>
+      <c r="D31" s="48">
+        <v>4</v>
+      </c>
+      <c r="E31" s="48">
+        <v>3</v>
+      </c>
+      <c r="F31" s="48">
+        <v>3</v>
+      </c>
+      <c r="G31" s="48">
+        <v>3</v>
+      </c>
+      <c r="H31" s="48">
+        <v>3</v>
+      </c>
+      <c r="I31" s="48">
+        <v>4</v>
+      </c>
+      <c r="J31" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="34" customFormat="1">
       <c r="B32" s="31" t="s">
         <v>72</v>
       </c>
@@ -1671,7 +1706,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" s="38" customFormat="1">
       <c r="B33" s="35" t="s">
         <v>73</v>
       </c>
@@ -1700,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B34" s="39" t="s">
         <v>74</v>
       </c>
@@ -1729,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="20">
       <c r="B35" s="8" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1777,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1790,7 @@
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1803,7 @@
       <c r="I37" s="18"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1816,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -1794,7 +1829,7 @@
       <c r="I39" s="18"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1807,20 +1842,36 @@
       <c r="I40" s="18"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" s="50" customFormat="1">
       <c r="B41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-    </row>
-    <row r="42" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="48">
+        <v>4</v>
+      </c>
+      <c r="D41" s="48">
+        <v>4</v>
+      </c>
+      <c r="E41" s="48">
+        <v>3</v>
+      </c>
+      <c r="F41" s="48">
+        <v>4</v>
+      </c>
+      <c r="G41" s="48">
+        <v>3</v>
+      </c>
+      <c r="H41" s="48">
+        <v>3</v>
+      </c>
+      <c r="I41" s="48">
+        <v>4</v>
+      </c>
+      <c r="J41" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="26" customFormat="1">
       <c r="B42" s="23" t="s">
         <v>72</v>
       </c>
@@ -1833,7 +1884,7 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" s="38" customFormat="1">
       <c r="B43" s="35" t="s">
         <v>73</v>
       </c>
@@ -1862,7 +1913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B44" s="39" t="s">
         <v>74</v>
       </c>
@@ -1891,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="20">
       <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
@@ -1904,7 +1955,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1968,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10">
       <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
@@ -1930,7 +1981,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +1994,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +2007,7 @@
       <c r="I49" s="18"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10">
       <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
@@ -1969,20 +2020,36 @@
       <c r="I50" s="18"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" s="50" customFormat="1">
       <c r="B51" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="49"/>
-    </row>
-    <row r="52" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="48">
+        <v>4</v>
+      </c>
+      <c r="D51" s="48">
+        <v>4</v>
+      </c>
+      <c r="E51" s="48">
+        <v>3</v>
+      </c>
+      <c r="F51" s="48">
+        <v>3</v>
+      </c>
+      <c r="G51" s="48">
+        <v>3</v>
+      </c>
+      <c r="H51" s="48">
+        <v>3</v>
+      </c>
+      <c r="I51" s="48">
+        <v>4</v>
+      </c>
+      <c r="J51" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="26" customFormat="1">
       <c r="B52" s="23" t="s">
         <v>72</v>
       </c>
@@ -1995,7 +2062,7 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" s="38" customFormat="1">
       <c r="B53" s="35" t="s">
         <v>73</v>
       </c>
@@ -2024,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B54" s="39" t="s">
         <v>74</v>
       </c>
@@ -2053,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="20">
       <c r="B55" s="8" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2133,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2146,7 @@
       <c r="I56" s="18"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10">
       <c r="B57" s="5" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2159,7 @@
       <c r="I57" s="18"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10">
       <c r="B58" s="5" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2172,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10">
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -2118,7 +2185,7 @@
       <c r="I59" s="18"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>19</v>
       </c>
@@ -2131,20 +2198,36 @@
       <c r="I60" s="18"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" s="50" customFormat="1">
       <c r="B61" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="49"/>
-    </row>
-    <row r="62" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="48">
+        <v>3</v>
+      </c>
+      <c r="D61" s="48">
+        <v>3</v>
+      </c>
+      <c r="E61" s="48">
+        <v>3</v>
+      </c>
+      <c r="F61" s="48">
+        <v>3</v>
+      </c>
+      <c r="G61" s="48">
+        <v>3</v>
+      </c>
+      <c r="H61" s="48">
+        <v>2</v>
+      </c>
+      <c r="I61" s="48">
+        <v>4</v>
+      </c>
+      <c r="J61" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="34" customFormat="1">
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
@@ -2157,7 +2240,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
     </row>
-    <row r="63" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" s="38" customFormat="1">
       <c r="B63" s="35" t="s">
         <v>73</v>
       </c>
@@ -2186,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B64" s="39" t="s">
         <v>74</v>
       </c>
@@ -2215,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10" ht="20">
       <c r="B65" s="8" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2311,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>28</v>
       </c>
@@ -2241,7 +2324,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10">
       <c r="B67" s="5" t="s">
         <v>24</v>
       </c>
@@ -2254,7 +2337,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10">
       <c r="B68" s="5" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +2350,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10">
       <c r="B69" s="5" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2363,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>27</v>
       </c>
@@ -2293,20 +2376,36 @@
       <c r="I70" s="18"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" s="50" customFormat="1">
       <c r="B71" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="49"/>
-    </row>
-    <row r="72" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="48">
+        <v>3</v>
+      </c>
+      <c r="D71" s="48">
+        <v>3</v>
+      </c>
+      <c r="E71" s="48">
+        <v>4</v>
+      </c>
+      <c r="F71" s="48">
+        <v>3</v>
+      </c>
+      <c r="G71" s="48">
+        <v>4</v>
+      </c>
+      <c r="H71" s="48">
+        <v>2</v>
+      </c>
+      <c r="I71" s="48">
+        <v>4</v>
+      </c>
+      <c r="J71" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" s="34" customFormat="1">
       <c r="B72" s="31" t="s">
         <v>72</v>
       </c>
@@ -2319,7 +2418,7 @@
       <c r="I72" s="32"/>
       <c r="J72" s="33"/>
     </row>
-    <row r="73" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" s="38" customFormat="1">
       <c r="B73" s="35" t="s">
         <v>73</v>
       </c>
@@ -2348,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B74" s="39" t="s">
         <v>74</v>
       </c>
@@ -2377,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" ht="20">
       <c r="B75" s="10" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2489,7 @@
       <c r="I75" s="20"/>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10">
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2502,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="22"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10">
       <c r="B77" s="7" t="s">
         <v>5</v>
       </c>
@@ -2416,7 +2515,7 @@
       <c r="I77" s="18"/>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10">
       <c r="B78" s="7" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +2528,7 @@
       <c r="I78" s="18"/>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10">
       <c r="B79" s="7" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2541,7 @@
       <c r="I79" s="18"/>
       <c r="J79" s="22"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10">
       <c r="B80" s="6" t="s">
         <v>4</v>
       </c>
@@ -2455,20 +2554,36 @@
       <c r="I80" s="18"/>
       <c r="J80" s="22"/>
     </row>
-    <row r="81" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" s="50" customFormat="1">
       <c r="B81" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="55"/>
-    </row>
-    <row r="82" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="48">
+        <v>4</v>
+      </c>
+      <c r="D81" s="48">
+        <v>5</v>
+      </c>
+      <c r="E81" s="48">
+        <v>3</v>
+      </c>
+      <c r="F81" s="48">
+        <v>3</v>
+      </c>
+      <c r="G81" s="48">
+        <v>4</v>
+      </c>
+      <c r="H81" s="48">
+        <v>4</v>
+      </c>
+      <c r="I81" s="48">
+        <v>4</v>
+      </c>
+      <c r="J81" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" s="34" customFormat="1">
       <c r="B82" s="43" t="s">
         <v>72</v>
       </c>
@@ -2481,7 +2596,7 @@
       <c r="I82" s="32"/>
       <c r="J82" s="44"/>
     </row>
-    <row r="83" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" s="38" customFormat="1">
       <c r="B83" s="45" t="s">
         <v>73</v>
       </c>
@@ -2510,7 +2625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B84" s="51" t="s">
         <v>74</v>
       </c>
@@ -2539,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10" ht="20">
       <c r="B85" s="8" t="s">
         <v>34</v>
       </c>
@@ -2552,7 +2667,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2680,7 @@
       <c r="I86" s="18"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10">
       <c r="B87" s="5" t="s">
         <v>29</v>
       </c>
@@ -2578,7 +2693,7 @@
       <c r="I87" s="18"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10">
       <c r="B88" s="5" t="s">
         <v>33</v>
       </c>
@@ -2591,7 +2706,7 @@
       <c r="I88" s="18"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10">
       <c r="B89" s="5" t="s">
         <v>32</v>
       </c>
@@ -2604,7 +2719,7 @@
       <c r="I89" s="18"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10">
       <c r="B90" s="5" t="s">
         <v>30</v>
       </c>
@@ -2617,20 +2732,36 @@
       <c r="I90" s="18"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" s="50" customFormat="1">
       <c r="B91" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="49"/>
-    </row>
-    <row r="92" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="48">
+        <v>4</v>
+      </c>
+      <c r="D91" s="48">
+        <v>4</v>
+      </c>
+      <c r="E91" s="48">
+        <v>4</v>
+      </c>
+      <c r="F91" s="48">
+        <v>3</v>
+      </c>
+      <c r="G91" s="48">
+        <v>2</v>
+      </c>
+      <c r="H91" s="48">
+        <v>2</v>
+      </c>
+      <c r="I91" s="48">
+        <v>4</v>
+      </c>
+      <c r="J91" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" s="34" customFormat="1">
       <c r="B92" s="31" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2774,7 @@
       <c r="I92" s="32"/>
       <c r="J92" s="33"/>
     </row>
-    <row r="93" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" s="38" customFormat="1">
       <c r="B93" s="35" t="s">
         <v>73</v>
       </c>
@@ -2672,7 +2803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B94" s="39" t="s">
         <v>74</v>
       </c>
@@ -2701,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10" ht="20">
       <c r="B95" s="8" t="s">
         <v>35</v>
       </c>
@@ -2714,7 +2845,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>36</v>
       </c>
@@ -2727,7 +2858,7 @@
       <c r="I96" s="18"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10">
       <c r="B97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2740,7 +2871,7 @@
       <c r="I97" s="18"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10">
       <c r="B98" s="5" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2884,7 @@
       <c r="I98" s="18"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10">
       <c r="B99" s="5" t="s">
         <v>39</v>
       </c>
@@ -2766,7 +2897,7 @@
       <c r="I99" s="18"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10">
       <c r="B100" s="5" t="s">
         <v>37</v>
       </c>
@@ -2779,20 +2910,36 @@
       <c r="I100" s="18"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" s="50" customFormat="1">
       <c r="B101" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="49"/>
-    </row>
-    <row r="102" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="48">
+        <v>5</v>
+      </c>
+      <c r="D101" s="48">
+        <v>5</v>
+      </c>
+      <c r="E101" s="48">
+        <v>4</v>
+      </c>
+      <c r="F101" s="48">
+        <v>2</v>
+      </c>
+      <c r="G101" s="48">
+        <v>3</v>
+      </c>
+      <c r="H101" s="48">
+        <v>4</v>
+      </c>
+      <c r="I101" s="48">
+        <v>2</v>
+      </c>
+      <c r="J101" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" s="34" customFormat="1">
       <c r="B102" s="31" t="s">
         <v>72</v>
       </c>
@@ -2805,7 +2952,7 @@
       <c r="I102" s="32"/>
       <c r="J102" s="33"/>
     </row>
-    <row r="103" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" s="38" customFormat="1">
       <c r="B103" s="35" t="s">
         <v>73</v>
       </c>
@@ -2834,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B104" s="39" t="s">
         <v>74</v>
       </c>
@@ -2863,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10" ht="20">
       <c r="B105" s="11" t="s">
         <v>77</v>
       </c>
@@ -2876,7 +3023,7 @@
       <c r="I105" s="18"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +3036,7 @@
       <c r="I106" s="18"/>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10">
       <c r="B107" s="5" t="s">
         <v>78</v>
       </c>
@@ -2902,7 +3049,7 @@
       <c r="I107" s="18"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10">
       <c r="B108" s="5" t="s">
         <v>80</v>
       </c>
@@ -2915,7 +3062,7 @@
       <c r="I108" s="18"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10">
       <c r="B109" s="5" t="s">
         <v>79</v>
       </c>
@@ -2928,7 +3075,7 @@
       <c r="I109" s="18"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10">
       <c r="B110" s="5" t="s">
         <v>76</v>
       </c>
@@ -2941,20 +3088,36 @@
       <c r="I110" s="18"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" s="50" customFormat="1">
       <c r="B111" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="49"/>
-    </row>
-    <row r="112" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="48">
+        <v>5</v>
+      </c>
+      <c r="D111" s="48">
+        <v>5</v>
+      </c>
+      <c r="E111" s="48">
+        <v>2</v>
+      </c>
+      <c r="F111" s="48">
+        <v>2</v>
+      </c>
+      <c r="G111" s="48">
+        <v>4</v>
+      </c>
+      <c r="H111" s="48">
+        <v>4</v>
+      </c>
+      <c r="I111" s="48">
+        <v>5</v>
+      </c>
+      <c r="J111" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" s="34" customFormat="1">
       <c r="B112" s="31" t="s">
         <v>72</v>
       </c>
@@ -2967,7 +3130,7 @@
       <c r="I112" s="32"/>
       <c r="J112" s="33"/>
     </row>
-    <row r="113" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" s="38" customFormat="1">
       <c r="B113" s="35" t="s">
         <v>73</v>
       </c>
@@ -2996,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B114" s="39" t="s">
         <v>74</v>
       </c>
@@ -3025,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10" ht="20">
       <c r="B115" s="11" t="s">
         <v>81</v>
       </c>
@@ -3038,7 +3201,7 @@
       <c r="I115" s="18"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>82</v>
       </c>
@@ -3051,7 +3214,7 @@
       <c r="I116" s="18"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10">
       <c r="B117" s="5" t="s">
         <v>83</v>
       </c>
@@ -3064,7 +3227,7 @@
       <c r="I117" s="18"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10">
       <c r="B118" s="5" t="s">
         <v>84</v>
       </c>
@@ -3077,7 +3240,7 @@
       <c r="I118" s="18"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10">
       <c r="B119" s="5" t="s">
         <v>85</v>
       </c>
@@ -3090,7 +3253,7 @@
       <c r="I119" s="18"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10">
       <c r="B120" s="5" t="s">
         <v>86</v>
       </c>
@@ -3103,20 +3266,36 @@
       <c r="I120" s="18"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="2:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" s="50" customFormat="1">
       <c r="B121" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="49"/>
-    </row>
-    <row r="122" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="48">
+        <v>5</v>
+      </c>
+      <c r="D121" s="48">
+        <v>5</v>
+      </c>
+      <c r="E121" s="48">
+        <v>2</v>
+      </c>
+      <c r="F121" s="48">
+        <v>2</v>
+      </c>
+      <c r="G121" s="48">
+        <v>2</v>
+      </c>
+      <c r="H121" s="48">
+        <v>3</v>
+      </c>
+      <c r="I121" s="48">
+        <v>4</v>
+      </c>
+      <c r="J121" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" s="34" customFormat="1">
       <c r="B122" s="31" t="s">
         <v>72</v>
       </c>
@@ -3129,7 +3308,7 @@
       <c r="I122" s="32"/>
       <c r="J122" s="33"/>
     </row>
-    <row r="123" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" s="38" customFormat="1">
       <c r="B123" s="35" t="s">
         <v>73</v>
       </c>
@@ -3158,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:10" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" s="42" customFormat="1" ht="16" thickBot="1">
       <c r="B124" s="39" t="s">
         <v>74</v>
       </c>
@@ -3187,42 +3366,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10">
       <c r="C125">
         <f t="shared" ref="C125:J125" si="0">SUM(C15:C124)</f>
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="D125">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="E125">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F125">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G125">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="H125">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f>SUM(H15:H124)</f>
+        <v>97</v>
       </c>
       <c r="I125">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="J125">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="16" thickBot="1"/>
+    <row r="128" spans="2:10" ht="20">
       <c r="B128" s="8" t="s">
         <v>87</v>
       </c>
@@ -3235,51 +3414,57 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10">
       <c r="B129" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="57">
+        <v>6</v>
+      </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="58">
+      <c r="G129" s="57">
         <v>6</v>
       </c>
-      <c r="H129" s="58">
-        <v>4</v>
-      </c>
-      <c r="I129" s="58">
-        <v>4</v>
-      </c>
-      <c r="J129" s="58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="57">
+        <v>4</v>
+      </c>
+      <c r="I129" s="57">
+        <v>4</v>
+      </c>
+      <c r="J129" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="16" thickBot="1">
       <c r="B130" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="57"/>
-      <c r="D130" s="56"/>
+      <c r="C130" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>92</v>
+      </c>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
-      <c r="G130" s="70">
+      <c r="G130" s="69">
         <v>34.74</v>
       </c>
-      <c r="H130" s="59" t="s">
+      <c r="H130" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="I130" s="60">
+      <c r="I130" s="59">
         <v>45</v>
       </c>
-      <c r="J130" s="61">
+      <c r="J130" s="60">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/proposal stage/ECE_411_Project_Matrix.xlsx
+++ b/proposal stage/ECE_411_Project_Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33880" windowHeight="26620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,6 +858,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1270,10 +1271,10 @@
   <dimension ref="A2:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="J123" sqref="J123"/>
+      <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1519,14 +1520,30 @@
       <c r="B22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="32">
+        <v>4</v>
+      </c>
+      <c r="D22" s="32">
+        <v>4</v>
+      </c>
+      <c r="E22" s="32">
+        <v>3</v>
+      </c>
+      <c r="F22" s="32">
+        <v>3</v>
+      </c>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+      <c r="H22" s="32">
+        <v>3</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2</v>
+      </c>
+      <c r="J22" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:10" s="38" customFormat="1">
       <c r="B23" s="35" t="s">
@@ -1697,14 +1714,30 @@
       <c r="B32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="C32" s="32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="32">
+        <v>3</v>
+      </c>
+      <c r="J32" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:10" s="38" customFormat="1">
       <c r="B33" s="35" t="s">
@@ -1876,13 +1909,27 @@
         <v>72</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
+      <c r="D42" s="24">
+        <v>3</v>
+      </c>
+      <c r="E42" s="24">
+        <v>3</v>
+      </c>
+      <c r="F42" s="24">
+        <v>3</v>
+      </c>
+      <c r="G42" s="24">
+        <v>4</v>
+      </c>
+      <c r="H42" s="24">
+        <v>3</v>
+      </c>
+      <c r="I42" s="24">
+        <v>3</v>
+      </c>
+      <c r="J42" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="2:10" s="38" customFormat="1">
       <c r="B43" s="35" t="s">
@@ -2053,14 +2100,30 @@
       <c r="B52" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="C52" s="24">
+        <v>4</v>
+      </c>
+      <c r="D52" s="24">
+        <v>3</v>
+      </c>
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="24">
+        <v>3</v>
+      </c>
+      <c r="G52" s="24">
+        <v>4</v>
+      </c>
+      <c r="H52" s="24">
+        <v>3</v>
+      </c>
+      <c r="I52" s="24">
+        <v>4</v>
+      </c>
+      <c r="J52" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:10" s="38" customFormat="1">
       <c r="B53" s="35" t="s">
@@ -2231,14 +2294,30 @@
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33"/>
+      <c r="C62" s="32">
+        <v>2</v>
+      </c>
+      <c r="D62" s="32">
+        <v>3</v>
+      </c>
+      <c r="E62" s="32">
+        <v>3</v>
+      </c>
+      <c r="F62" s="32">
+        <v>2</v>
+      </c>
+      <c r="G62" s="32">
+        <v>2</v>
+      </c>
+      <c r="H62" s="32">
+        <v>2</v>
+      </c>
+      <c r="I62" s="32">
+        <v>3</v>
+      </c>
+      <c r="J62" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:10" s="38" customFormat="1">
       <c r="B63" s="35" t="s">
@@ -2409,14 +2488,30 @@
       <c r="B72" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="33"/>
+      <c r="C72" s="32">
+        <v>2</v>
+      </c>
+      <c r="D72" s="32">
+        <v>3</v>
+      </c>
+      <c r="E72" s="32">
+        <v>5</v>
+      </c>
+      <c r="F72" s="32">
+        <v>3</v>
+      </c>
+      <c r="G72" s="32">
+        <v>2</v>
+      </c>
+      <c r="H72" s="32">
+        <v>2</v>
+      </c>
+      <c r="I72" s="32">
+        <v>3</v>
+      </c>
+      <c r="J72" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="2:10" s="38" customFormat="1">
       <c r="B73" s="35" t="s">
@@ -2587,14 +2682,30 @@
       <c r="B82" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="44"/>
+      <c r="C82" s="32">
+        <v>3</v>
+      </c>
+      <c r="D82" s="32">
+        <v>4</v>
+      </c>
+      <c r="E82" s="32">
+        <v>4</v>
+      </c>
+      <c r="F82" s="32">
+        <v>4</v>
+      </c>
+      <c r="G82" s="32">
+        <v>4</v>
+      </c>
+      <c r="H82" s="32">
+        <v>3</v>
+      </c>
+      <c r="I82" s="32">
+        <v>3</v>
+      </c>
+      <c r="J82" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="2:10" s="38" customFormat="1">
       <c r="B83" s="45" t="s">
@@ -2765,14 +2876,30 @@
       <c r="B92" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="33"/>
+      <c r="C92" s="32">
+        <v>4</v>
+      </c>
+      <c r="D92" s="32">
+        <v>4</v>
+      </c>
+      <c r="E92" s="32">
+        <v>4</v>
+      </c>
+      <c r="F92" s="32">
+        <v>3</v>
+      </c>
+      <c r="G92" s="32">
+        <v>4</v>
+      </c>
+      <c r="H92" s="32">
+        <v>4</v>
+      </c>
+      <c r="I92" s="32">
+        <v>4</v>
+      </c>
+      <c r="J92" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="2:10" s="38" customFormat="1">
       <c r="B93" s="35" t="s">
@@ -2943,14 +3070,30 @@
       <c r="B102" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="33"/>
+      <c r="C102" s="32">
+        <v>4</v>
+      </c>
+      <c r="D102" s="32">
+        <v>3</v>
+      </c>
+      <c r="E102" s="32">
+        <v>4</v>
+      </c>
+      <c r="F102" s="32">
+        <v>4</v>
+      </c>
+      <c r="G102" s="32">
+        <v>4</v>
+      </c>
+      <c r="H102" s="32">
+        <v>3</v>
+      </c>
+      <c r="I102" s="32">
+        <v>2</v>
+      </c>
+      <c r="J102" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="2:10" s="38" customFormat="1">
       <c r="B103" s="35" t="s">
@@ -3121,14 +3264,30 @@
       <c r="B112" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="33"/>
+      <c r="C112" s="32">
+        <v>5</v>
+      </c>
+      <c r="D112" s="32">
+        <v>5</v>
+      </c>
+      <c r="E112" s="32">
+        <v>4</v>
+      </c>
+      <c r="F112" s="32">
+        <v>5</v>
+      </c>
+      <c r="G112" s="32">
+        <v>4</v>
+      </c>
+      <c r="H112" s="32">
+        <v>5</v>
+      </c>
+      <c r="I112" s="32">
+        <v>5</v>
+      </c>
+      <c r="J112" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="2:10" s="38" customFormat="1">
       <c r="B113" s="35" t="s">
@@ -3299,14 +3458,30 @@
       <c r="B122" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="33"/>
+      <c r="C122" s="32">
+        <v>2</v>
+      </c>
+      <c r="D122" s="32">
+        <v>3</v>
+      </c>
+      <c r="E122" s="32">
+        <v>5</v>
+      </c>
+      <c r="F122" s="32">
+        <v>3</v>
+      </c>
+      <c r="G122" s="32">
+        <v>4</v>
+      </c>
+      <c r="H122" s="32">
+        <v>2</v>
+      </c>
+      <c r="I122" s="32">
+        <v>2</v>
+      </c>
+      <c r="J122" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="2:10" s="38" customFormat="1">
       <c r="B123" s="35" t="s">
@@ -3369,35 +3544,35 @@
     <row r="125" spans="2:10">
       <c r="C125">
         <f t="shared" ref="C125:J125" si="0">SUM(C15:C124)</f>
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D125">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E125">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F125">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G125">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="H125">
         <f>SUM(H15:H124)</f>
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I125">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="J125">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="16" thickBot="1"/>
@@ -3422,8 +3597,12 @@
         <v>6</v>
       </c>
       <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+      <c r="E129" s="5">
+        <v>10</v>
+      </c>
+      <c r="F129" s="5">
+        <v>4</v>
+      </c>
       <c r="G129" s="57">
         <v>6</v>
       </c>
@@ -3447,8 +3626,12 @@
       <c r="D130" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
+      <c r="E130" s="71">
+        <v>25</v>
+      </c>
+      <c r="F130" s="71">
+        <v>40</v>
+      </c>
       <c r="G130" s="69">
         <v>34.74</v>
       </c>
